--- a/docs/data/gdp/raw/bgn.xlsx
+++ b/docs/data/gdp/raw/bgn.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="80">
   <si>
     <t/>
   </si>
@@ -28,26 +28,26 @@
         <rFont val="Calibri"/>
         <vertAlign val="superscript"/>
       </rPr>
-      <t>1, 2</t>
+      <t>1, 2, 3</t>
     </r>
   </si>
   <si>
     <t>(млн. лв.)</t>
   </si>
   <si>
-    <t>7502:MLv_fig:31</t>
+    <t>7502:MLv_fig:32</t>
   </si>
   <si>
     <t>Текущи цени</t>
   </si>
   <si>
-    <t>7502:MLv_fig:31;7500:1:0</t>
+    <t>7502:MLv_fig:32;7500:1:0</t>
   </si>
   <si>
     <t>Брутен вътрешен продукт</t>
   </si>
   <si>
-    <t>7502:MLv_fig:31;7500:1:0;7497:3:1</t>
+    <t>7502:MLv_fig:32;7500:1:0;7497:3:1</t>
   </si>
   <si>
     <t>1995</t>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>7499:2023:30</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>7499:2024:31</t>
   </si>
   <si>
     <t>Бележки</t>
@@ -242,7 +248,7 @@
         <sz val="9.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> Преизчислените агрегати по цени на 2020 г. не са адитивни</t>
+      <t xml:space="preserve"> 2024 г. - Предварителни данни</t>
     </r>
     <r>
       <t>.</t>
@@ -264,6 +270,28 @@
         <sz val="9.0"/>
         <rFont val="Calibri"/>
       </rPr>
+      <t xml:space="preserve"> Преизчислените агрегати по цени на 2020 г. не са адитивни</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="53"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve"> Индексите са изчислени въз основа на стойностите на съответния показател по цени на 2020 г</t>
     </r>
     <r>
@@ -292,7 +320,7 @@
     <t>Времева разбивка</t>
   </si>
   <si>
-    <t>Дата на изготвяне на справката: 03/02/2025</t>
+    <t>Дата на изготвяне на справката: 12/03/2025</t>
   </si>
 </sst>
 </file>
@@ -830,71 +858,84 @@
         <v>185232.505</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
+    <row r="34">
+      <c r="A34" t="s" s="11">
         <v>66</v>
       </c>
+      <c r="B34" t="n" s="13">
+        <v>202861.481</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>67</v>
+      <c r="A36" t="s" s="2">
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="3">
-        <v>70</v>
+      <c r="A39" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="8">
+      <c r="A41" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="8">
         <v>0</v>
       </c>
-      <c r="B41" t="s" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="9">
+      <c r="B43" t="s" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="9">
         <v>0</v>
       </c>
-      <c r="B42" t="s" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="10">
+      <c r="B44" t="s" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="B43" t="s" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="14">
+      <c r="B45" t="s" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="14">
         <v>0</v>
       </c>
-      <c r="B45" t="s" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="3">
-        <v>76</v>
+      <c r="B47" t="s" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="3">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
